--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_278.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_278.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[('0:01:45.280000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:13.080000', '0:00:19.460000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3835227272727273</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['E', 'A', 'E', 'B', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[['A', 'D/5', 'A', 'E/4', 'D/5']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[('0:00:06.726778', '0:00:16.305010')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.913000', '0:00:27.467000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:37.880000', '0:01:48.980000'), ('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1277173913043478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.32, 49.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(96.06, 107.42)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
